--- a/実験/7回目実験成功/実験データトリミング（6時間） (自動保存済み).xlsx
+++ b/実験/7回目実験成功/実験データトリミング（6時間） (自動保存済み).xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="20">
   <si>
     <t>観光地検索画面 192.168.1.81</t>
   </si>
@@ -186,6 +186,22 @@
     <t>観光地検索画面 192.168.1.81</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>提案システムサーバ毎の割り振り回数</t>
+    <rPh sb="9" eb="10">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -291,10 +307,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1112,7 +1128,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3285,7 +3300,7 @@
   <dimension ref="A1:J999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3300,13 +3315,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -3404,12 +3419,12 @@
       <c r="E6" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
+      <c r="G6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="12">
@@ -9549,13 +9564,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -9653,12 +9668,12 @@
       <c r="E6" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="12">
